--- a/classification/droptc/sentence/drone-sbert/unfreeze/52680723/prediction.xlsx
+++ b/classification/droptc/sentence/drone-sbert/unfreeze/52680723/prediction.xlsx
@@ -478,19 +478,19 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9894481897354126</v>
+        <v>0.9999370574951172</v>
       </c>
     </row>
     <row r="3">
@@ -518,7 +518,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.99770587682724</v>
+        <v>0.9999442100524902</v>
       </c>
     </row>
     <row r="4">
@@ -534,7 +534,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -543,10 +543,10 @@
         </is>
       </c>
       <c r="E4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9976268410682678</v>
+        <v>0.9999368190765381</v>
       </c>
     </row>
     <row r="5">
@@ -562,19 +562,19 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9867616891860962</v>
+        <v>0.9995467066764832</v>
       </c>
     </row>
     <row r="6">
@@ -602,7 +602,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9977007508277893</v>
+        <v>0.9999459981918335</v>
       </c>
     </row>
     <row r="7">
@@ -630,7 +630,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9976875782012939</v>
+        <v>0.9999452829360962</v>
       </c>
     </row>
     <row r="8">
@@ -658,7 +658,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9976933598518372</v>
+        <v>0.9999465942382812</v>
       </c>
     </row>
     <row r="9">
@@ -674,19 +674,19 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E9" t="b">
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9289398193359375</v>
+        <v>0.9999455213546753</v>
       </c>
     </row>
     <row r="10">
@@ -714,7 +714,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9976782202720642</v>
+        <v>0.9999465942382812</v>
       </c>
     </row>
     <row r="11">
@@ -742,7 +742,7 @@
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9977086782455444</v>
+        <v>0.9998880624771118</v>
       </c>
     </row>
     <row r="12">
@@ -770,7 +770,7 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9977185726165771</v>
+        <v>0.9999463558197021</v>
       </c>
     </row>
     <row r="13">
@@ -786,19 +786,19 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E13" t="b">
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9896752238273621</v>
+        <v>0.9996564388275146</v>
       </c>
     </row>
     <row r="14">
@@ -826,7 +826,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9977103471755981</v>
+        <v>0.9999469518661499</v>
       </c>
     </row>
     <row r="15">
@@ -854,7 +854,7 @@
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9977097511291504</v>
+        <v>0.9991482496261597</v>
       </c>
     </row>
     <row r="16">
@@ -870,19 +870,19 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E16" t="b">
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9894191026687622</v>
+        <v>0.9999450445175171</v>
       </c>
     </row>
     <row r="17">
@@ -910,7 +910,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9976930022239685</v>
+        <v>0.9999444484710693</v>
       </c>
     </row>
     <row r="18">
@@ -926,19 +926,19 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E18" t="b">
         <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9693397283554077</v>
+        <v>0.9969319105148315</v>
       </c>
     </row>
     <row r="19">
@@ -966,7 +966,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9977074861526489</v>
+        <v>0.9999449253082275</v>
       </c>
     </row>
     <row r="20">
@@ -982,19 +982,19 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E20" t="b">
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9893950819969177</v>
+        <v>0.9999468326568604</v>
       </c>
     </row>
     <row r="21">
@@ -1010,19 +1010,19 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E21" t="b">
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9800549745559692</v>
+        <v>0.9999458789825439</v>
       </c>
     </row>
     <row r="22">
@@ -1050,7 +1050,7 @@
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9976614713668823</v>
+        <v>0.9999470710754395</v>
       </c>
     </row>
     <row r="23">
@@ -1066,19 +1066,19 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E23" t="b">
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9886647462844849</v>
+        <v>0.9999464750289917</v>
       </c>
     </row>
     <row r="24">
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.997719943523407</v>
+        <v>0.9999474287033081</v>
       </c>
     </row>
     <row r="25">
@@ -1122,19 +1122,19 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E25" t="b">
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9892617464065552</v>
+        <v>0.9995551705360413</v>
       </c>
     </row>
     <row r="26">
@@ -1162,7 +1162,7 @@
         <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>0.8854315876960754</v>
+        <v>0.9969457983970642</v>
       </c>
     </row>
     <row r="27">
@@ -1190,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9977201819419861</v>
+        <v>0.999943733215332</v>
       </c>
     </row>
     <row r="28">
@@ -1218,7 +1218,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9976930022239685</v>
+        <v>0.9999442100524902</v>
       </c>
     </row>
     <row r="29">
@@ -1234,7 +1234,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1243,10 +1243,10 @@
         </is>
       </c>
       <c r="E29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9971702694892883</v>
+        <v>0.9999454021453857</v>
       </c>
     </row>
     <row r="30">
@@ -1274,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9977046847343445</v>
+        <v>0.9999442100524902</v>
       </c>
     </row>
     <row r="31">
@@ -1302,7 +1302,7 @@
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9976977705955505</v>
+        <v>0.9999439716339111</v>
       </c>
     </row>
     <row r="32">
@@ -1318,19 +1318,19 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E32" t="b">
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9886500835418701</v>
+        <v>0.9999430179595947</v>
       </c>
     </row>
     <row r="33">
@@ -1358,7 +1358,7 @@
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>0.989354133605957</v>
+        <v>0.9994246959686279</v>
       </c>
     </row>
     <row r="34">
@@ -1374,19 +1374,19 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E34" t="b">
         <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>0.8799189329147339</v>
+        <v>0.9995740056037903</v>
       </c>
     </row>
     <row r="35">
@@ -1402,19 +1402,19 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E35" t="b">
         <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9976946711540222</v>
+        <v>0.9996802806854248</v>
       </c>
     </row>
     <row r="36">
@@ -1430,19 +1430,19 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E36" t="b">
         <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>0.988701343536377</v>
+        <v>0.9999459981918335</v>
       </c>
     </row>
     <row r="37">
@@ -1458,19 +1458,19 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E37" t="b">
         <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.9977061748504639</v>
+        <v>0.9996691942214966</v>
       </c>
     </row>
     <row r="38">
@@ -1498,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9977280497550964</v>
+        <v>0.9999457597732544</v>
       </c>
     </row>
     <row r="39">
@@ -1514,19 +1514,19 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E39" t="b">
         <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9976832866668701</v>
+        <v>0.9856095910072327</v>
       </c>
     </row>
     <row r="40">
@@ -1542,19 +1542,19 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E40" t="b">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9655013680458069</v>
+        <v>0.9994921684265137</v>
       </c>
     </row>
     <row r="41">
@@ -1570,19 +1570,19 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E41" t="b">
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0.989473283290863</v>
+        <v>0.9999463558197021</v>
       </c>
     </row>
     <row r="42">
@@ -1598,19 +1598,19 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E42" t="b">
         <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9977273344993591</v>
+        <v>0.9991723299026489</v>
       </c>
     </row>
     <row r="43">
@@ -1626,19 +1626,19 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E43" t="b">
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>0.9977295994758606</v>
+        <v>0.9993821382522583</v>
       </c>
     </row>
     <row r="44">
@@ -1654,19 +1654,19 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E44" t="b">
         <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9977166652679443</v>
+        <v>0.9996769428253174</v>
       </c>
     </row>
     <row r="45">
@@ -1682,19 +1682,19 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E45" t="b">
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.9887141585350037</v>
+        <v>0.9994588494300842</v>
       </c>
     </row>
     <row r="46">
@@ -1710,19 +1710,19 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E46" t="b">
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0.9802439212799072</v>
+        <v>0.9993509650230408</v>
       </c>
     </row>
     <row r="47">
@@ -1738,19 +1738,19 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.7210749983787537</v>
+        <v>0.9992212057113647</v>
       </c>
     </row>
     <row r="48">
@@ -1766,19 +1766,19 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E48" t="b">
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0.9977018237113953</v>
+        <v>0.999377429485321</v>
       </c>
     </row>
     <row r="49">
@@ -1806,7 +1806,7 @@
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.9976850748062134</v>
+        <v>0.9999474287033081</v>
       </c>
     </row>
     <row r="50">
@@ -1822,19 +1822,19 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E50" t="b">
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0.9977231621742249</v>
+        <v>0.9993882179260254</v>
       </c>
     </row>
     <row r="51">
@@ -1850,19 +1850,19 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9976875782012939</v>
+        <v>0.9991776347160339</v>
       </c>
     </row>
     <row r="52">
@@ -1890,7 +1890,7 @@
         <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0.997698962688446</v>
+        <v>0.9999436140060425</v>
       </c>
     </row>
     <row r="53">
@@ -1906,19 +1906,19 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E53" t="b">
         <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>0.9801019430160522</v>
+        <v>0.9993882179260254</v>
       </c>
     </row>
     <row r="54">
@@ -1934,7 +1934,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0.9282134175300598</v>
+        <v>0.9993846416473389</v>
       </c>
     </row>
     <row r="55">
@@ -1962,19 +1962,19 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E55" t="b">
         <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>0.9799930453300476</v>
+        <v>0.9999463558197021</v>
       </c>
     </row>
     <row r="56">
@@ -2002,7 +2002,7 @@
         <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0.9976902008056641</v>
+        <v>0.9999457597732544</v>
       </c>
     </row>
     <row r="57">
@@ -2030,7 +2030,7 @@
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0.9976981282234192</v>
+        <v>0.999947190284729</v>
       </c>
     </row>
     <row r="58">
@@ -2046,19 +2046,19 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E58" t="b">
         <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.9498735666275024</v>
+        <v>0.9997019171714783</v>
       </c>
     </row>
     <row r="59">
@@ -2086,7 +2086,7 @@
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.9976917505264282</v>
+        <v>0.9999450445175171</v>
       </c>
     </row>
     <row r="60">
@@ -2102,19 +2102,19 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E60" t="b">
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.9892877340316772</v>
+        <v>0.9999412298202515</v>
       </c>
     </row>
     <row r="61">
@@ -2142,7 +2142,7 @@
         <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>0.9976937174797058</v>
+        <v>0.9999456405639648</v>
       </c>
     </row>
     <row r="62">
@@ -2158,19 +2158,19 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E62" t="b">
         <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>0.9886100292205811</v>
+        <v>0.9999464750289917</v>
       </c>
     </row>
     <row r="63">
@@ -2186,19 +2186,19 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E63" t="b">
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>0.9976832866668701</v>
+        <v>0.9996823072433472</v>
       </c>
     </row>
     <row r="64">
@@ -2214,19 +2214,19 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E64" t="b">
         <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>0.9893307685852051</v>
+        <v>0.9745465517044067</v>
       </c>
     </row>
     <row r="65">
@@ -2242,19 +2242,19 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E65" t="b">
         <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>0.9977092742919922</v>
+        <v>0.9996886253356934</v>
       </c>
     </row>
     <row r="66">
@@ -2282,7 +2282,7 @@
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0.9885713458061218</v>
+        <v>0.9996886253356934</v>
       </c>
     </row>
     <row r="67">
@@ -2310,7 +2310,7 @@
         <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9886800050735474</v>
+        <v>0.9996743202209473</v>
       </c>
     </row>
     <row r="68">
@@ -2326,19 +2326,19 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E68" t="b">
         <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0.99770587682724</v>
+        <v>0.9996886253356934</v>
       </c>
     </row>
     <row r="69">
@@ -2354,19 +2354,19 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E69" t="b">
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0.9894960522651672</v>
+        <v>0.9997425675392151</v>
       </c>
     </row>
     <row r="70">
@@ -2394,7 +2394,7 @@
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0.9977201819419861</v>
+        <v>0.9999455213546753</v>
       </c>
     </row>
     <row r="71">
@@ -2410,19 +2410,19 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
+          <t>SoftwareFault</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
           <t>HardwareFault</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>HardwareFault</t>
-        </is>
-      </c>
       <c r="E71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>0.9886857271194458</v>
+        <v>0.9994630217552185</v>
       </c>
     </row>
     <row r="72">
@@ -2438,19 +2438,19 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E72" t="b">
         <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>0.9802439212799072</v>
+        <v>0.999942421913147</v>
       </c>
     </row>
     <row r="73">
@@ -2466,19 +2466,19 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E73" t="b">
         <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>0.9977152347564697</v>
+        <v>0.9996796846389771</v>
       </c>
     </row>
     <row r="74">
@@ -2506,7 +2506,7 @@
         <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0.9976953864097595</v>
+        <v>0.9999464750289917</v>
       </c>
     </row>
     <row r="75">
@@ -2527,14 +2527,14 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>0.9876198768615723</v>
+        <v>0.9999432563781738</v>
       </c>
     </row>
     <row r="76">
@@ -2550,19 +2550,19 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E76" t="b">
         <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>0.9977269768714905</v>
+        <v>0.9996796846389771</v>
       </c>
     </row>
     <row r="77">
@@ -2590,7 +2590,7 @@
         <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>0.9977225661277771</v>
+        <v>0.999944806098938</v>
       </c>
     </row>
     <row r="78">
@@ -2606,19 +2606,19 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E78" t="b">
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0.9976690411567688</v>
+        <v>0.9996796846389771</v>
       </c>
     </row>
     <row r="79">
@@ -2646,7 +2646,7 @@
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>0.9976832866668701</v>
+        <v>0.9999458789825439</v>
       </c>
     </row>
     <row r="80">
@@ -2662,19 +2662,19 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E80" t="b">
         <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>0.9892691969871521</v>
+        <v>0.9996777772903442</v>
       </c>
     </row>
     <row r="81">
@@ -2690,19 +2690,19 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E81" t="b">
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>0.9886261820793152</v>
+        <v>0.9999454021453857</v>
       </c>
     </row>
     <row r="82">
@@ -2718,19 +2718,19 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E82" t="b">
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>0.9977260231971741</v>
+        <v>0.9996777772903442</v>
       </c>
     </row>
     <row r="83">
@@ -2758,7 +2758,7 @@
         <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0.9976733326911926</v>
+        <v>0.9999434947967529</v>
       </c>
     </row>
     <row r="84">
@@ -2786,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>0.9977096319198608</v>
+        <v>0.9999434947967529</v>
       </c>
     </row>
     <row r="85">
@@ -2807,14 +2807,14 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>0.9487985372543335</v>
+        <v>0.9999464750289917</v>
       </c>
     </row>
     <row r="86">
@@ -2830,19 +2830,19 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E86" t="b">
         <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>0.9892617464065552</v>
+        <v>0.9996920824050903</v>
       </c>
     </row>
     <row r="87">
@@ -2858,19 +2858,19 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>0.94696444272995</v>
+        <v>0.9999464750289917</v>
       </c>
     </row>
     <row r="88">
@@ -2886,19 +2886,19 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E88" t="b">
         <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>0.9976929426193237</v>
+        <v>0.9996650218963623</v>
       </c>
     </row>
     <row r="89">
@@ -2919,14 +2919,14 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>0.9652590751647949</v>
+        <v>0.9999442100524902</v>
       </c>
     </row>
     <row r="90">
@@ -2954,7 +2954,7 @@
         <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>0.9977052807807922</v>
+        <v>0.9999468326568604</v>
       </c>
     </row>
     <row r="91">
@@ -2982,7 +2982,7 @@
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0.9977059364318848</v>
+        <v>0.9999467134475708</v>
       </c>
     </row>
     <row r="92">
@@ -3010,7 +3010,7 @@
         <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>0.9977263808250427</v>
+        <v>0.9999467134475708</v>
       </c>
     </row>
     <row r="93">
@@ -3038,7 +3038,7 @@
         <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>0.9976933598518372</v>
+        <v>0.999946117401123</v>
       </c>
     </row>
     <row r="94">
@@ -3066,7 +3066,7 @@
         <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>0.9977141618728638</v>
+        <v>0.9999464750289917</v>
       </c>
     </row>
     <row r="95">
@@ -3082,19 +3082,19 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E95" t="b">
         <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0.9887444972991943</v>
+        <v>0.9999467134475708</v>
       </c>
     </row>
     <row r="96">
@@ -3122,7 +3122,7 @@
         <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>0.9976832866668701</v>
+        <v>0.9999474287033081</v>
       </c>
     </row>
     <row r="97">
@@ -3138,19 +3138,19 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E97" t="b">
         <v>1</v>
       </c>
       <c r="F97" t="n">
-        <v>0.9696663618087769</v>
+        <v>0.9978078007698059</v>
       </c>
     </row>
     <row r="98">
@@ -3178,7 +3178,7 @@
         <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>0.9976832866668701</v>
+        <v>0.9999457597732544</v>
       </c>
     </row>
     <row r="99">
@@ -3194,19 +3194,19 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
           <t>HardwareFault</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>HardwareFault</t>
-        </is>
-      </c>
       <c r="E99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>0.9887260794639587</v>
+        <v>0.9929516911506653</v>
       </c>
     </row>
     <row r="100">
@@ -3234,7 +3234,7 @@
         <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>0.9976868629455566</v>
+        <v>0.9999463558197021</v>
       </c>
     </row>
     <row r="101">
@@ -3262,7 +3262,7 @@
         <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>0.9977293610572815</v>
+        <v>0.9999449253082275</v>
       </c>
     </row>
     <row r="102">
@@ -3278,19 +3278,19 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E102" t="b">
         <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>0.9799930453300476</v>
+        <v>0.9990424513816833</v>
       </c>
     </row>
     <row r="103">
@@ -3306,19 +3306,19 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E103" t="b">
         <v>1</v>
       </c>
       <c r="F103" t="n">
-        <v>0.9977180957794189</v>
+        <v>0.9987630844116211</v>
       </c>
     </row>
     <row r="104">
@@ -3334,19 +3334,19 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E104" t="b">
         <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>0.9740997552871704</v>
+        <v>0.9999445676803589</v>
       </c>
     </row>
     <row r="105">
@@ -3362,19 +3362,19 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E105" t="b">
         <v>1</v>
       </c>
       <c r="F105" t="n">
-        <v>0.9976667165756226</v>
+        <v>0.9997591376304626</v>
       </c>
     </row>
     <row r="106">
@@ -3402,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>0.9977295994758606</v>
+        <v>0.9999463558197021</v>
       </c>
     </row>
     <row r="107">
@@ -3418,19 +3418,19 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E107" t="b">
         <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>0.5477775931358337</v>
+        <v>0.9994099140167236</v>
       </c>
     </row>
     <row r="108">
@@ -3458,7 +3458,7 @@
         <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>0.9618646502494812</v>
+        <v>0.9996310472488403</v>
       </c>
     </row>
     <row r="109">
@@ -3486,7 +3486,7 @@
         <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>0.9977351427078247</v>
+        <v>0.999943733215332</v>
       </c>
     </row>
     <row r="110">
@@ -3502,19 +3502,19 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E110" t="b">
         <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>0.9779143333435059</v>
+        <v>0.9999442100524902</v>
       </c>
     </row>
     <row r="111">
@@ -3530,19 +3530,19 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E111" t="b">
         <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>0.9496849775314331</v>
+        <v>0.9994296431541443</v>
       </c>
     </row>
     <row r="112">
@@ -3558,19 +3558,19 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E112" t="b">
         <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>0.9977182149887085</v>
+        <v>0.9993922710418701</v>
       </c>
     </row>
     <row r="113">
@@ -3586,19 +3586,19 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E113" t="b">
         <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>0.9695396423339844</v>
+        <v>0.9996364116668701</v>
       </c>
     </row>
     <row r="114">
@@ -3626,7 +3626,7 @@
         <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>0.9977307915687561</v>
+        <v>0.999946117401123</v>
       </c>
     </row>
     <row r="115">
@@ -3642,19 +3642,19 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E115" t="b">
         <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>0.9976937174797058</v>
+        <v>0.9996970891952515</v>
       </c>
     </row>
     <row r="116">
@@ -3682,7 +3682,7 @@
         <v>1</v>
       </c>
       <c r="F116" t="n">
-        <v>0.9976832866668701</v>
+        <v>0.9999399185180664</v>
       </c>
     </row>
     <row r="117">
@@ -3710,7 +3710,7 @@
         <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>0.9976636171340942</v>
+        <v>0.9999438524246216</v>
       </c>
     </row>
     <row r="118">
@@ -3726,19 +3726,19 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E118" t="b">
         <v>1</v>
       </c>
       <c r="F118" t="n">
-        <v>0.997723400592804</v>
+        <v>0.9985890984535217</v>
       </c>
     </row>
     <row r="119">
@@ -3759,14 +3759,14 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E119" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F119" t="n">
-        <v>0.9976922273635864</v>
+        <v>0.9873731732368469</v>
       </c>
     </row>
     <row r="120">
@@ -3794,7 +3794,7 @@
         <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>0.9977198243141174</v>
+        <v>0.9999442100524902</v>
       </c>
     </row>
     <row r="121">
@@ -3810,19 +3810,19 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E121" t="b">
         <v>1</v>
       </c>
       <c r="F121" t="n">
-        <v>0.9976957440376282</v>
+        <v>0.9997546076774597</v>
       </c>
     </row>
     <row r="122">
@@ -3850,7 +3850,7 @@
         <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>0.9977113008499146</v>
+        <v>0.999947190284729</v>
       </c>
     </row>
     <row r="123">
@@ -3866,19 +3866,19 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E123" t="b">
         <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>0.9976819753646851</v>
+        <v>0.9997546076774597</v>
       </c>
     </row>
     <row r="124">
@@ -3906,7 +3906,7 @@
         <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>0.997671902179718</v>
+        <v>0.999947190284729</v>
       </c>
     </row>
     <row r="125">
@@ -3922,19 +3922,19 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E125" t="b">
         <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>0.9886415600776672</v>
+        <v>0.9997546076774597</v>
       </c>
     </row>
     <row r="126">
@@ -3962,7 +3962,7 @@
         <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>0.9591958522796631</v>
+        <v>0.9999456405639648</v>
       </c>
     </row>
     <row r="127">
@@ -3978,19 +3978,19 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E127" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>0.9460643529891968</v>
+        <v>0.9994654059410095</v>
       </c>
     </row>
     <row r="128">
@@ -4006,19 +4006,19 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E128" t="b">
         <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>0.9803211688995361</v>
+        <v>0.9999442100524902</v>
       </c>
     </row>
     <row r="129">
@@ -4039,14 +4039,14 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E129" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F129" t="n">
-        <v>0.9977071285247803</v>
+        <v>0.9996542930603027</v>
       </c>
     </row>
     <row r="130">
@@ -4074,7 +4074,7 @@
         <v>0</v>
       </c>
       <c r="F130" t="n">
-        <v>0.9443448781967163</v>
+        <v>0.9921556115150452</v>
       </c>
     </row>
     <row r="131">
@@ -4102,7 +4102,7 @@
         <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>0.9976832866668701</v>
+        <v>0.9999455213546753</v>
       </c>
     </row>
     <row r="132">
@@ -4118,19 +4118,19 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E132" t="b">
         <v>1</v>
       </c>
       <c r="F132" t="n">
-        <v>0.9977136850357056</v>
+        <v>0.852877140045166</v>
       </c>
     </row>
     <row r="133">
@@ -4146,19 +4146,19 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E133" t="b">
         <v>1</v>
       </c>
       <c r="F133" t="n">
-        <v>0.989550769329071</v>
+        <v>0.999946117401123</v>
       </c>
     </row>
     <row r="134">
@@ -4174,19 +4174,19 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E134" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>0.9886647462844849</v>
+        <v>0.9999468326568604</v>
       </c>
     </row>
     <row r="135">
@@ -4214,7 +4214,7 @@
         <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>0.997710108757019</v>
+        <v>0.9999457597732544</v>
       </c>
     </row>
     <row r="136">
@@ -4242,7 +4242,7 @@
         <v>1</v>
       </c>
       <c r="F136" t="n">
-        <v>0.9977180957794189</v>
+        <v>0.999913215637207</v>
       </c>
     </row>
     <row r="137">
@@ -4258,19 +4258,19 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E137" t="b">
         <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>0.9509390592575073</v>
+        <v>0.9999450445175171</v>
       </c>
     </row>
     <row r="138">
@@ -4298,7 +4298,7 @@
         <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>0.9977097511291504</v>
+        <v>0.9999456405639648</v>
       </c>
     </row>
     <row r="139">
@@ -4326,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>0.9977293610572815</v>
+        <v>0.9999446868896484</v>
       </c>
     </row>
     <row r="140">
@@ -4342,19 +4342,19 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E140" t="b">
         <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>0.9863365888595581</v>
+        <v>0.9999442100524902</v>
       </c>
     </row>
     <row r="141">
@@ -4375,14 +4375,14 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E141" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F141" t="n">
-        <v>0.9977136850357056</v>
+        <v>0.7879605889320374</v>
       </c>
     </row>
     <row r="142">
@@ -4410,7 +4410,7 @@
         <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>0.9977242350578308</v>
+        <v>0.9999442100524902</v>
       </c>
     </row>
     <row r="143">
@@ -4426,19 +4426,19 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E143" t="b">
         <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>0.9977083206176758</v>
+        <v>0.9996969699859619</v>
       </c>
     </row>
     <row r="144">
@@ -4466,7 +4466,7 @@
         <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>0.9976595640182495</v>
+        <v>0.9999468326568604</v>
       </c>
     </row>
     <row r="145">
@@ -4482,19 +4482,19 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E145" t="b">
         <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>0.9976986050605774</v>
+        <v>0.9996969699859619</v>
       </c>
     </row>
     <row r="146">
@@ -4522,7 +4522,7 @@
         <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>0.9976971745491028</v>
+        <v>0.999943733215332</v>
       </c>
     </row>
     <row r="147">
@@ -4538,19 +4538,19 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E147" t="b">
         <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>0.9886754751205444</v>
+        <v>0.9997425675392151</v>
       </c>
     </row>
     <row r="148">
@@ -4578,7 +4578,7 @@
         <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>0.9977237582206726</v>
+        <v>0.9999462366104126</v>
       </c>
     </row>
     <row r="149">
@@ -4594,19 +4594,19 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E149" t="b">
         <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>0.997714638710022</v>
+        <v>0.9996905326843262</v>
       </c>
     </row>
     <row r="150">
@@ -4622,19 +4622,19 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E150" t="b">
         <v>1</v>
       </c>
       <c r="F150" t="n">
-        <v>0.9068890810012817</v>
+        <v>0.9993202686309814</v>
       </c>
     </row>
     <row r="151">
@@ -4650,19 +4650,19 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E151" t="b">
         <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>0.9695974588394165</v>
+        <v>0.9999442100524902</v>
       </c>
     </row>
     <row r="152">
@@ -4678,19 +4678,19 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E152" t="b">
         <v>1</v>
       </c>
       <c r="F152" t="n">
-        <v>0.9886916875839233</v>
+        <v>0.9871311783790588</v>
       </c>
     </row>
     <row r="153">
@@ -4718,7 +4718,7 @@
         <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>0.997719943523407</v>
+        <v>0.9999479055404663</v>
       </c>
     </row>
     <row r="154">
@@ -4734,19 +4734,19 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E154" t="b">
         <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>0.9977359771728516</v>
+        <v>0.9995830655097961</v>
       </c>
     </row>
     <row r="155">
@@ -4774,7 +4774,7 @@
         <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>0.997714638710022</v>
+        <v>0.9999465942382812</v>
       </c>
     </row>
     <row r="156">
@@ -4790,19 +4790,19 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E156" t="b">
         <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>0.9977163076400757</v>
+        <v>0.9995903372764587</v>
       </c>
     </row>
     <row r="157">
@@ -4818,19 +4818,19 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E157" t="b">
         <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>0.9892691969871521</v>
+        <v>0.9999465942382812</v>
       </c>
     </row>
     <row r="158">
@@ -4846,19 +4846,19 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E158" t="b">
         <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>0.988701343536377</v>
+        <v>0.9995823502540588</v>
       </c>
     </row>
     <row r="159">
@@ -4886,7 +4886,7 @@
         <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>0.9976832866668701</v>
+        <v>0.9999475479125977</v>
       </c>
     </row>
     <row r="160">
@@ -4902,19 +4902,19 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E160" t="b">
         <v>1</v>
       </c>
       <c r="F160" t="n">
-        <v>0.9976875782012939</v>
+        <v>0.9993282556533813</v>
       </c>
     </row>
     <row r="161">
@@ -4930,19 +4930,19 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E161" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F161" t="n">
-        <v>0.9807471632957458</v>
+        <v>0.9999440908432007</v>
       </c>
     </row>
     <row r="162">
@@ -4963,14 +4963,14 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E162" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F162" t="n">
-        <v>0.9867603778839111</v>
+        <v>0.9681467413902283</v>
       </c>
     </row>
     <row r="163">
@@ -4998,7 +4998,7 @@
         <v>1</v>
       </c>
       <c r="F163" t="n">
-        <v>0.9977060556411743</v>
+        <v>0.9999444484710693</v>
       </c>
     </row>
     <row r="164">
@@ -5014,7 +5014,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -5023,10 +5023,10 @@
         </is>
       </c>
       <c r="E164" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F164" t="n">
-        <v>0.9872081875801086</v>
+        <v>0.9996644258499146</v>
       </c>
     </row>
     <row r="165">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>0.9977056384086609</v>
+        <v>0.999946117401123</v>
       </c>
     </row>
     <row r="166">
@@ -5075,14 +5075,14 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E166" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F166" t="n">
-        <v>0.9977043271064758</v>
+        <v>0.9488832354545593</v>
       </c>
     </row>
     <row r="167">
@@ -5098,19 +5098,19 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E167" t="b">
         <v>1</v>
       </c>
       <c r="F167" t="n">
-        <v>0.9977371692657471</v>
+        <v>0.9993994235992432</v>
       </c>
     </row>
     <row r="168">
@@ -5131,14 +5131,14 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E168" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>0.9977009892463684</v>
+        <v>0.9995843768119812</v>
       </c>
     </row>
     <row r="169">
@@ -5166,7 +5166,7 @@
         <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>0.9977322816848755</v>
+        <v>0.9999442100524902</v>
       </c>
     </row>
     <row r="170">
@@ -5182,19 +5182,19 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E170" t="b">
         <v>1</v>
       </c>
       <c r="F170" t="n">
-        <v>0.988488495349884</v>
+        <v>0.9993994235992432</v>
       </c>
     </row>
     <row r="171">
@@ -5215,14 +5215,14 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E171" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>0.9976875782012939</v>
+        <v>0.9996175765991211</v>
       </c>
     </row>
     <row r="172">
@@ -5238,19 +5238,19 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E172" t="b">
         <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>0.9886543750762939</v>
+        <v>0.9999442100524902</v>
       </c>
     </row>
     <row r="173">
@@ -5278,7 +5278,7 @@
         <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>0.9977071285247803</v>
+        <v>0.9999442100524902</v>
       </c>
     </row>
     <row r="174">
@@ -5306,7 +5306,7 @@
         <v>1</v>
       </c>
       <c r="F174" t="n">
-        <v>0.9977148771286011</v>
+        <v>0.9999449253082275</v>
       </c>
     </row>
     <row r="175">
@@ -5322,19 +5322,19 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E175" t="b">
         <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>0.9695878028869629</v>
+        <v>0.9999442100524902</v>
       </c>
     </row>
     <row r="176">
@@ -5362,7 +5362,7 @@
         <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>0.9977036118507385</v>
+        <v>0.9999442100524902</v>
       </c>
     </row>
     <row r="177">
@@ -5390,7 +5390,7 @@
         <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>0.9977230429649353</v>
+        <v>0.9999449253082275</v>
       </c>
     </row>
     <row r="178">
@@ -5418,7 +5418,7 @@
         <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>0.9976999163627625</v>
+        <v>0.999944806098938</v>
       </c>
     </row>
     <row r="179">
@@ -5446,7 +5446,7 @@
         <v>1</v>
       </c>
       <c r="F179" t="n">
-        <v>0.9976832866668701</v>
+        <v>0.9999430179595947</v>
       </c>
     </row>
     <row r="180">
@@ -5462,7 +5462,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -5471,10 +5471,10 @@
         </is>
       </c>
       <c r="E180" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>0.9977141618728638</v>
+        <v>0.9999449253082275</v>
       </c>
     </row>
     <row r="181">
@@ -5502,7 +5502,7 @@
         <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>0.9977153539657593</v>
+        <v>0.999943733215332</v>
       </c>
     </row>
     <row r="182">
@@ -5530,7 +5530,7 @@
         <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>0.9977177381515503</v>
+        <v>0.9999452829360962</v>
       </c>
     </row>
     <row r="183">
@@ -5546,19 +5546,19 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E183" t="b">
         <v>1</v>
       </c>
       <c r="F183" t="n">
-        <v>0.988701343536377</v>
+        <v>0.9997420907020569</v>
       </c>
     </row>
     <row r="184">
@@ -5586,7 +5586,7 @@
         <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>0.9977038502693176</v>
+        <v>0.9999473094940186</v>
       </c>
     </row>
     <row r="185">
@@ -5614,7 +5614,7 @@
         <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>0.9976782202720642</v>
+        <v>0.999947190284729</v>
       </c>
     </row>
     <row r="186">
@@ -5642,7 +5642,7 @@
         <v>1</v>
       </c>
       <c r="F186" t="n">
-        <v>0.9976961016654968</v>
+        <v>0.9999469518661499</v>
       </c>
     </row>
     <row r="187">
@@ -5658,19 +5658,19 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E187" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>0.9892706871032715</v>
+        <v>0.9999468326568604</v>
       </c>
     </row>
     <row r="188">
@@ -5686,19 +5686,19 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E188" t="b">
         <v>1</v>
       </c>
       <c r="F188" t="n">
-        <v>0.9646908044815063</v>
+        <v>0.9999464750289917</v>
       </c>
     </row>
     <row r="189">
@@ -5726,7 +5726,7 @@
         <v>1</v>
       </c>
       <c r="F189" t="n">
-        <v>0.9977224469184875</v>
+        <v>0.9999455213546753</v>
       </c>
     </row>
     <row r="190">
@@ -5742,19 +5742,19 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E190" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F190" t="n">
-        <v>0.9891873002052307</v>
+        <v>0.9999451637268066</v>
       </c>
     </row>
     <row r="191">
@@ -5770,19 +5770,19 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E191" t="b">
         <v>1</v>
       </c>
       <c r="F191" t="n">
-        <v>0.9694962501525879</v>
+        <v>0.9970184564590454</v>
       </c>
     </row>
     <row r="192">
@@ -5798,19 +5798,19 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E192" t="b">
         <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>0.9802439212799072</v>
+        <v>0.9999452829360962</v>
       </c>
     </row>
     <row r="193">
@@ -5838,7 +5838,7 @@
         <v>1</v>
       </c>
       <c r="F193" t="n">
-        <v>0.9977200627326965</v>
+        <v>0.9999445676803589</v>
       </c>
     </row>
     <row r="194">
@@ -5854,19 +5854,19 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E194" t="b">
         <v>1</v>
       </c>
       <c r="F194" t="n">
-        <v>0.9976924657821655</v>
+        <v>0.9997538924217224</v>
       </c>
     </row>
     <row r="195">
@@ -5882,19 +5882,19 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E195" t="b">
         <v>1</v>
       </c>
       <c r="F195" t="n">
-        <v>0.9886754751205444</v>
+        <v>0.9993540644645691</v>
       </c>
     </row>
     <row r="196">
@@ -5910,19 +5910,19 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E196" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F196" t="n">
-        <v>0.9878993630409241</v>
+        <v>0.9999470710754395</v>
       </c>
     </row>
     <row r="197">
@@ -5950,7 +5950,7 @@
         <v>1</v>
       </c>
       <c r="F197" t="n">
-        <v>0.9977256655693054</v>
+        <v>0.9999462366104126</v>
       </c>
     </row>
     <row r="198">
@@ -5966,19 +5966,19 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E198" t="b">
         <v>1</v>
       </c>
       <c r="F198" t="n">
-        <v>0.988605797290802</v>
+        <v>0.9999468326568604</v>
       </c>
     </row>
     <row r="199">
@@ -5994,19 +5994,19 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E199" t="b">
         <v>1</v>
       </c>
       <c r="F199" t="n">
-        <v>0.9886543750762939</v>
+        <v>0.9999458789825439</v>
       </c>
     </row>
     <row r="200">
@@ -6022,19 +6022,19 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E200" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F200" t="n">
-        <v>0.9977014660835266</v>
+        <v>0.9994425177574158</v>
       </c>
     </row>
     <row r="201">
@@ -6062,7 +6062,7 @@
         <v>1</v>
       </c>
       <c r="F201" t="n">
-        <v>0.9977226853370667</v>
+        <v>0.9999457597732544</v>
       </c>
     </row>
     <row r="202">
@@ -6078,19 +6078,19 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E202" t="b">
         <v>1</v>
       </c>
       <c r="F202" t="n">
-        <v>0.9886647462844849</v>
+        <v>0.9999459981918335</v>
       </c>
     </row>
     <row r="203">
@@ -6118,7 +6118,7 @@
         <v>1</v>
       </c>
       <c r="F203" t="n">
-        <v>0.997730553150177</v>
+        <v>0.9999436140060425</v>
       </c>
     </row>
     <row r="204">
@@ -6134,19 +6134,19 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E204" t="b">
         <v>1</v>
       </c>
       <c r="F204" t="n">
-        <v>0.9977248311042786</v>
+        <v>0.9993762373924255</v>
       </c>
     </row>
     <row r="205">
@@ -6174,7 +6174,7 @@
         <v>1</v>
       </c>
       <c r="F205" t="n">
-        <v>0.9977046847343445</v>
+        <v>0.9999465942382812</v>
       </c>
     </row>
     <row r="206">
@@ -6195,14 +6195,14 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E206" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F206" t="n">
-        <v>0.4397842884063721</v>
+        <v>0.9999449253082275</v>
       </c>
     </row>
     <row r="207">
@@ -6218,19 +6218,19 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E207" t="b">
         <v>1</v>
       </c>
       <c r="F207" t="n">
-        <v>0.9976898431777954</v>
+        <v>0.9977662563323975</v>
       </c>
     </row>
     <row r="208">
@@ -6246,19 +6246,19 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E208" t="b">
         <v>1</v>
       </c>
       <c r="F208" t="n">
-        <v>0.9886795878410339</v>
+        <v>0.9999427795410156</v>
       </c>
     </row>
     <row r="209">
@@ -6286,7 +6286,7 @@
         <v>1</v>
       </c>
       <c r="F209" t="n">
-        <v>0.8986003994941711</v>
+        <v>0.9964602589607239</v>
       </c>
     </row>
     <row r="210">
@@ -6314,7 +6314,7 @@
         <v>1</v>
       </c>
       <c r="F210" t="n">
-        <v>0.9976880550384521</v>
+        <v>0.9999454021453857</v>
       </c>
     </row>
   </sheetData>
